--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_36.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -708,313 +718,336 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1319148936170213</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.935986, 12.498707)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.42, 20.16)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1023,182 +1056,128 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2092198581560284</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.754783)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.290634, 43.926916)]</t>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.44, 34.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 46.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
